--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H200_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5319148936170213</v>
+        <v>0.4741641337386018</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.2085782617328112</v>
+        <v>0.1801487389047889</v>
       </c>
       <c r="J2" t="n">
-        <v>2780.332483478335</v>
+        <v>2348.798937114217</v>
       </c>
       <c r="K2" t="n">
-        <v>10226732.35879803</v>
+        <v>6898949.20074318</v>
       </c>
       <c r="L2" t="n">
-        <v>3197.926259124501</v>
+        <v>2626.585083476867</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.9228495963326413</v>
+        <v>-0.29715350127023</v>
       </c>
     </row>
   </sheetData>
